--- a/Vermogen opbouwen incl indexatie 20230721.xlsx
+++ b/Vermogen opbouwen incl indexatie 20230721.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gert\Mijn documenten\Financien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91634F16-26A0-454D-8D34-FA397F5D5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05402861-C10B-4B75-A258-87FFF774C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -517,12 +517,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -545,14 +543,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Uitvoer" xfId="2" builtinId="21" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -838,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -884,11 +875,10 @@
         <v>1990</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -900,16 +890,16 @@
         <f>D3-D4</f>
         <v>33</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="13">
         <v>0.8</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <v>0.06</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -923,13 +913,13 @@
       <c r="E6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="13">
         <v>0.1</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <v>0.1</v>
       </c>
     </row>
@@ -943,13 +933,13 @@
       <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="13">
         <v>0.1</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="25">
         <v>0.12</v>
       </c>
     </row>
@@ -963,13 +953,13 @@
       <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="18">
         <v>0</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -983,12 +973,12 @@
       <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30">
+      <c r="I9" s="27"/>
+      <c r="J9" s="28">
         <f>SUM(J5:J8)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="29">
         <f>SUM((J5*K5)+(J6*K6)+(J7*K7)+(J8*K8))</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1116,7 +1106,7 @@
       </c>
     </row>
     <row r="12" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="14"/>
@@ -1282,7 +1272,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="14"/>
@@ -1448,7 +1438,7 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="4"/>
@@ -1614,7 +1604,7 @@
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4"/>
@@ -12143,7 +12133,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
